--- a/biology/Botanique/Alfred_de_Vergnette_de_Lamotte/Alfred_de_Vergnette_de_Lamotte.xlsx
+++ b/biology/Botanique/Alfred_de_Vergnette_de_Lamotte/Alfred_de_Vergnette_de_Lamotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Élisabeth Alfred de Vergnette de Lamotte, né le 5 juillet 1806 à Beaune (Côte-d'Or) où il est mort le 28 mai 1886, est surtout connu par ses travaux sur le vin : en reprenant la découverte de Nicolas Appert, il propose le chauffage du vin pour éviter une perte de qualité.
 Louis Pasteur le rencontre et prend connaissance de ses travaux ; il minimise cependant l'apport de ses recherches et son expérience. Ainsi, quand il publie ses travaux sur les moyens de conservation du vin, Pasteur s’attribue dans un premier temps l’antériorité de la découverte du chauffage du vin, puis rendit justice à Nicolas Appert.
@@ -512,24 +524,26 @@
           <t>Biographie [1],[2],[3],[4],[5],[6]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’Hubert de Vergnette de Lamotte et d’Elisabeth de Montille, il fait ses études au collège Monge de Beaune, puis à Paris, au collège Charlemagne et à l'institution Massin, à partir de 1822. 
 En novembre 1826, il entre à l’École Polytechnique, le premier de sa promotion. Il a la chance de recevoir l’enseignement de professeurs prestigieux : François Arago comme professeur d’analyse appliquée à la géométrie, de géodésie et d’arithmétique sociale, Augustin Louis Cauchy comme professeur d’analyse (mathématiques) et de mécanique ainsi que Louis Joseph Gay-Lussac comme professeur de chimie.
-Pendant son séjour à Paris, de 1826 à 1832, il fréquente les salons de la comtesse de Narbonne et celui du baron de Ballainvilliers[7].
+Pendant son séjour à Paris, de 1826 à 1832, il fréquente les salons de la comtesse de Narbonne et celui du baron de Ballainvilliers.
 Ensuite il sort de l’Ecole des Mines avec le diplôme d’ingénieur.
 En 1828, il est déclaré admissible dans les services publics et il choisit le service des Mines.
-En 1832, il est nommé ingénieur ordinaire et il renonce au service d’Etat en 1834 pour se consacrer à l’agronomie [8]: il quitte Paris pour rejoindre sa Bourgogne natale où il épouse Henriette Nodot, riche héritière qui lui apporte en dot un domaine à Savigny lès Beaune. Il se retrouve à la tête d’un important domaine viticole à Pommard, où il est propriétaire de 36 ha de vignes de première classe, mais aussi à Meursault, Volnay et Beaune où il possède le « Clos des mouches ». Ses caves de Pommard ont servi de modèle à bien des caves de la Côte.
+En 1832, il est nommé ingénieur ordinaire et il renonce au service d’Etat en 1834 pour se consacrer à l’agronomie : il quitte Paris pour rejoindre sa Bourgogne natale où il épouse Henriette Nodot, riche héritière qui lui apporte en dot un domaine à Savigny lès Beaune. Il se retrouve à la tête d’un important domaine viticole à Pommard, où il est propriétaire de 36 ha de vignes de première classe, mais aussi à Meursault, Volnay et Beaune où il possède le « Clos des mouches ». Ses caves de Pommard ont servi de modèle à bien des caves de la Côte.
 En 1847, il entre au conseil municipal de Beaune et se déclare sans étiquette politique.
 En 1851, il devient maire de Beaune mais il démissionne après le coup d’État du 2 décembre 1851 de Louis-Napoléon Bonaparte, en 1852 (le 28 avril).
-En 1855, avec le concours de l’ingénieur Ritter, il introduit le drainage dans l’arrondissement de Beaune et préconise l’emploi du sulfatage des échalas[9]. L’établissement de fontaines dans sa ville natale de Beaune et dans les communes voisines (Meursault, Savigny, Pommard), dont il capte les sources et dirige les travaux, contribue puissamment à établir sa réputation[10].
+En 1855, avec le concours de l’ingénieur Ritter, il introduit le drainage dans l’arrondissement de Beaune et préconise l’emploi du sulfatage des échalas. L’établissement de fontaines dans sa ville natale de Beaune et dans les communes voisines (Meursault, Savigny, Pommard), dont il capte les sources et dirige les travaux, contribue puissamment à établir sa réputation.
 Propriétaire viticole, passionné d’agronomie, de viticulture et d’œnologie, il mène des études sur le terroir des vignobles bourguignons et leurs différents cépages. 
 Il publie des ouvrages consacrés à la géologie, la topographie et la climatologie dans la région beaunoise, à l’application des observations météorologiques à l’étude de la viticulture. Il s’intéresse également à la vendange puis aux maladies de la vigne, à l’emploi du tanin dans le collage des vins, à la congélation du vin, au chauffage du vin.
 Son apport  de loin le plus important est la technique du chauffage du vin (voir plus loin les travaux).
 Le baron Thénard fait un résumé de ses travaux à l’Académie, qui le nomme par la suite membre correspondant de l’Institut en 1865.
 En 1866, Vergnette publie son ouvrage célèbre « Le Vin », qui connaît un grand succès, à la suite duquel, l’année suivante, il publie une deuxième édition du livre.
 Il fait également de nombreuses communications à l’Académie des Sciences (voir notes en références).
-Vergnette prend également une part active dans la révision[11] du traité de commerce conclu en 1860 avec l’Angleterre en ce qui concerne le degré alcoolique des vins pouvant entrer sans surtaxe dans ce pays[12].
+Vergnette prend également une part active dans la révision du traité de commerce conclu en 1860 avec l’Angleterre en ce qui concerne le degré alcoolique des vins pouvant entrer sans surtaxe dans ce pays.
 Il encourage également par l’intermédiaire de l’Association Vinicole Commerciale la création de la Chambre de Commerce de Beaune. 
 Vergnette se consacre aussi au Comité d’Agriculture et de Viticulture de Beaune dont il est un temps président.
 De 1874 à 1886, il est président de la Société d’Archéologie, d’Histoire et de Littérature de Beaune.
@@ -563,7 +577,9 @@
           <t>Titres et distinctions[13]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">- Chevalier de la Légion d'honneur (15 août 1869) 
 - Maire de Beaune (1851-1852) 
@@ -572,7 +588,7 @@
 - Vice-président du Conseil d’hygiène de l’arrondissement de Beaune
 - Président de la Société d’Archéologie, d’histoire et de littérature de Beaune (1874-1886) 
 - Correspondant de l’Académie des sciences (section économie rurale) ( 5 février 1865) 
-- Correspondant de l’Institut de France[14] 
+- Correspondant de l’Institut de France 
 - Correspondant de la Société centrale d’agriculture 
 - Correspondant de l’Académie de Dijon (section des sciences) 
 - Correspondant des Sociétés d’agriculture de Lyon, Turin, Lisbonne, Dijon, Chalon-sur-Saône, Angers, etc. 
@@ -616,51 +632,298 @@
           <t>L’apport et l’œuvre d'Alfred de Vergnette de Lamotte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut dire que l’apport de loin le plus important d'Alfred de Vergnette de Lamotte est sa contribution sur le vin et ses procédés de conservation (chauffage et congélation). 
 La technique du chauffage du vin était connue depuis l’Antiquité : Columelle en parle déjà dans son traité de viticulture, le « De re rustica » (vers 42 avant Jésus-Christ). 
-D’après Alfred de Vergnette[15], les Romains chauffaient leur vin, non pas dans le but de le conserver, mais pour concentrer et  augmenter la richesse en saccharine des moûts.
-En 1827, A. Gervais publie une brochure sur l’application de la chaleur à la conservation des vins, Mémoire sur les effets de l’appareil épurateur pour l’amélioration et la conservation des vins [16] ; il met sa méthode sous le patronage du gouvernement et les ministres de l’intérieur et du commerce qui acceptent la dédicace de son ouvrage [16]. Sa méthode consiste en un transvasement du vin d’un tonneau à un autre en passant dans un appareil chauffé au bain-marie. Par ce procédé, le vin a une plus longue conservation et est propre au transport[17].
-Alfred de Vergnette rapporte que, dans le mémoire de Gervais[18]  « le ferment était la cause des maladies dont les vins sont susceptibles ».
-Plus proche d'Alfred de Vergnette, Nicolas Appert mis au point en 1795 le procédé de conservation des aliments par le chauffage[19]. Il reçut du gouvernement de l'Empire une récompense de 12000 francs avec obligation de publier sa découverte. Nicolas Appert accepte en 1810, de laisser sa méthode tomber dans le domaine public en publiant « L’art de conserver pendant plusieurs années toutes les substances animales ou végétales ». En 1841, Appert meurt pauvre et ruiné.
-1846
-L’apport d’Alfred de Vergnette de Lamotte de loin le plus important est la technique de conservation du vin par chauffage et congélation.
-Connaissant les travaux de Nicolas Appert et de Jean-Antoine Gervais, dès 1840, il reprend les expériences d’Appert [20],[21].
-Dans son mémoire sur le chauffage du vin, Vergnette fait une importante remarque [22] : en 1846, il chauffe un vin de 1840 et constate qu’il est merveilleusement conservé, tandis que le même vin non chauffé s’est altéré[23].
+D’après Alfred de Vergnette, les Romains chauffaient leur vin, non pas dans le but de le conserver, mais pour concentrer et  augmenter la richesse en saccharine des moûts.
+En 1827, A. Gervais publie une brochure sur l’application de la chaleur à la conservation des vins, Mémoire sur les effets de l’appareil épurateur pour l’amélioration et la conservation des vins  ; il met sa méthode sous le patronage du gouvernement et les ministres de l’intérieur et du commerce qui acceptent la dédicace de son ouvrage . Sa méthode consiste en un transvasement du vin d’un tonneau à un autre en passant dans un appareil chauffé au bain-marie. Par ce procédé, le vin a une plus longue conservation et est propre au transport.
+Alfred de Vergnette rapporte que, dans le mémoire de Gervais  « le ferment était la cause des maladies dont les vins sont susceptibles ».
+Plus proche d'Alfred de Vergnette, Nicolas Appert mis au point en 1795 le procédé de conservation des aliments par le chauffage. Il reçut du gouvernement de l'Empire une récompense de 12000 francs avec obligation de publier sa découverte. Nicolas Appert accepte en 1810, de laisser sa méthode tomber dans le domaine public en publiant « L’art de conserver pendant plusieurs années toutes les substances animales ou végétales ». En 1841, Appert meurt pauvre et ruiné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L’apport et l’œuvre d'Alfred de Vergnette de Lamotte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’apport d’Alfred de Vergnette de Lamotte de loin le plus important est la technique de conservation du vin par chauffage et congélation.
+Connaissant les travaux de Nicolas Appert et de Jean-Antoine Gervais, dès 1840, il reprend les expériences d’Appert ,.
+Dans son mémoire sur le chauffage du vin, Vergnette fait une importante remarque  : en 1846, il chauffe un vin de 1840 et constate qu’il est merveilleusement conservé, tandis que le même vin non chauffé s’est altéré.
 Pasteur connaissait Alfred de Vergnette : il était venu chez lui pour s’instruire sur le vin en général. Au départ une collaboration s’installe mais très vite, Pasteur décide de jouer cavalier seul et, dans ses communications, il balayera toute antériorité des travaux du chauffage du vin de Vergnette. Une polémique s’ensuivra entre les deux protagonistes (voir plus loin).
-La première trace écrite sur les travaux de Vergnette sur le chauffage du vin date de 1846, soit vingt ans avant Louis Pasteur  et 36 ans après la publication d'Appert [24],[25]. On y lit que « La chaleur rendait les ferments moins organisés.». D’après L. de Montille[22],  « la chaleur rendait les ferments moins organisés », cela signifie que « la chaleur atténuait les ferments », formule qui a servi de base à tous les travaux de Louis Pasteur.
-Cette année-là, il publie également un mémoire sur la viticulture et l’œnologie de la Côte-d’Or [26],[27],[28]. de Vergnette parle de congélation artificielle pour conserver les vins. D’après de nombreux historiens, il est le premier à avoir utilisé la congélation pour conserver du vin[29].
-1847
-En 1847, il s’intéresse aux insectes nuisibles à la vigne[30] ainsi que de l’emploi du tannin dans le collage des vins[31].
-1848
-En 1848, il publie un texte sur l’exportation des vins de Bourgogne dans les pays chauds[32] ainsi qu’un texte sur l’impôt sur les boissons[33].
-1850
-En 1850, il publie un mémoire sur ses expériences et ses résultats dans les annales de la Société centrale d’agriculture de Paris (ce mémoire fut republié dans le journal de Beaune en 1865 et inséré dans son livre « Le vin » en 1866) [34],[35],[36]. Signalons au passage que Pasteur prétend n’en avoir pris connaissance qu’en 1865[37].
-Citons la communication publiée par Alfred de Vergnette : « En 1840 des vins de cette récolte avaient été mis en bouteille au décuvage. Après avoir été bouchées ficelées et exposées au bain-marie à une température de 70 degrés, elles furent descendues à la cave et oubliées. En 1846 (alors que la plupart des vins de 1840 dont les raisins furent grêlés, avaient subi une maladie à laquelle plusieurs succombèrent) quelques bouteilles de ce vin se trouvèrent sous ma main avec leur étiquette et je constatai avec une remarquable satisfaction qu’ils étaient dans le meilleur état de conservation. Nous avons répété cette expérience sur d’autres vins à l’époque de leur mise en bouteille et nous avons réussi, en faisant varier la température du bain-marie de 50 à 75 degrés, à préserver les vins de qualité soumis à ces essais de toute altération ultérieure. Nous ne terminerons pas cette notice sans conseiller aussi pour les vins qui doivent être expédiés en bouteille, un essai dont la réussite a été complète pour les vins blancs. On soumet les bouteilles bouchées et ficelées à la chaleur d’un bain-marie en ayant soin d’éteindre le feu dès que la température atteint 70 degrés. Quand cette eau est descendue au degré de la température ambiante, on les en retire et on les goudronne. J’ai soumis à mes essais de grands vins blancs de Bourgogne qui après avoir subi ce traitement avaient fait deux fois le trajet des Antilles sans subir la moindre altération » [38]. 
-« J’ai observé, il y a quelques années, un fait assez important. Souvent obligé, dans le moment de la récolte, de conserver par la méthode Appert, des moûts destinés à des expériences qui ne pouvaient être faites que plus tard, j’ai aussi appliqué ce procédé à des vins de différentes qualités »[39],[40].
-1863
-Le 7 décembre 1863, Pasteur écrit à l’Académie des sciences[41]
-1864
-Cette année-là, Alfred de Vergnette rédige un travail sur les vignes et la vinification dans la Côte-d’Or [42].
-Le 18 janvier 1864, Pasteur écrit aux CR[43]
-Le 27 avril 1864, il adresse une lettre à Pasteur, à la suite de sa publication sur la maladie de l’amertume des grands vins de bourgogne[44].
-Le comité central de Sologne, dans sa séance d’automne de 1864, avait, sur la proposition de son président, M. le sénateur Boinvilliers, voté une médaille d’or de 1000 francs « à l’inventeur d’un procédé qui serait rendu public, et qui permettrait aux vins de France les transports de terre et de mer, et le séjour prolongé, en tous pays, sans que leur goût ou leur parfum en fût altéré » [45]. Rappelons toutefois que Alfred de Vergnette de Lamotte a déjà publié un procédé en 1848 sur l'exportation des vins de Bourgogne dans les pays chauds (voir plus haut).
-1865
-Le 13 février 1865, il présente sa candidature à l’Académie des Sciences dans la Section d’Économie rurale, à la suite du décès de Monsieur Parade[46].
-Le 20 février 1865, il est élu comme membre correspondant dans la Section d’Économie rurale et obtient 48 suffrages sur 57[47].
-Le 11 avril 1865, Pasteur dépose un brevet d’invention dans le but de pouvoir suivre à son aise toutes ses expériences et correspondre avec un grand nombre de personnes, sans craindre qu'on le devance par quelque publication ou brevet[48], alors que les travaux de Vergnette lui sont antérieurs et que Louis Pasteur a eu ce dernier comme source d'informations et de savoir-faire.
-Le 1er mai 1865, Vergnette fait une communication sur les effets de la chaleur pour la conservation et l’amélioration des vins aux Comptes rendus de l’Académie des Sciences[49] : faire un résumé.
-Le même jour, Pasteur fait également une communication à l'Académie des sciences[50].
-Le 13 ou 15 mai 1865, Vergnette republie son mémoire de 1850 sur ses expériences de chauffage et sur ses résultats[51]
-Afin d’asseoir toute antériorité de ses travaux sur Vergnette, Pasteur s’empresse de faire connaître les travaux de Nicolas Appert dans une note insérée aux Comptes-rendus de l’Académie des sciences de décembre 1865[52],. En parlant d’Appert, il y écrit que « C’est néanmoins cet habile industriel qui, le premier, a nettement indiqué la possibilité de conserver le vin par l’application préalable de la chaleur. Pourtant il est juste de faire remarquer que le fait sur lequel Appert s’appuyait ne prouvait pas du tout que sa méthode fût réellement bonne pour le vin. »[52].
-Le 29 mai 1865, Pasteur…[53]
-Le 14 août 1865, Pasteur publie… [54]
-Le 11 octobre 1865, Pasteur adresse une lettre au rédacteur en chef du Moniteur vinicole (Sur le procédé de conservation des vins par le chauffage préalable)[55]. Il affirme que jamais un négociant du Midi n’a fait chauffer du vin dans le but de le conserver. Si les négociants en vin le font chauffer, c’est afin de « vieillir » le vin mais jamais dans un but de conservation. Il fait référence[56] à ses notes publiées à l’Académie le 29 mai 1865 [53] et 14 août 1865[54]. Il reconnaît, dans le même article envoyé au rédacteur, que la personne qui a le plus approché son procédé de conservation est M. de Vergnette-Lamotte[57]. Mais il insiste pour faire remarquer que le procédé proposé par M. de Vergnette le 1er mai 1865 n’a que des analogies avec le sien[48]. De même, Pasteur indique qu’il ne connaissait pas les expériences d’Appert lorsqu’il adresse la lettre au rédacteur en chef[48].
-Pasteur affirme dans sa lettre au Moniteur vinicole qu’il prend pour la première fois connaissance de la note de Vergnette, publiée la première fois en 1850 et qui vient d’être republiée le 13 mai 1865, dans le Journal de Beaune[58].
-Pasteur reconnaît que Vergnette a observé avant lui que du vin chauffé au bain-marie par le procédé d’Appert peut se conserver ensuite[59] mais fait la nuance suivante : il termine en disant « Il n’en est pas moins vrai que M. de Vergnette est la personne qui a le plus approché du procédé de conservation que j’ai fait connaître, et c’est son travail, ainsi que la méthode d’Appert, et non les pratiques de Mèze et de Cette, que la vérité historique doit placer avant le mien »[60]. Indirectement, il reconnaît un peu l’antériorité des travaux d’Appert et de Vergnette.
-Le 4 décembre 1865, Pasteur cite les travaux d’Appert[61]. expérience de transport de vin
-Cette année-là, Vergnette publie son livre le plus connu « Le vin »[62] qui sera réédité l’année suivante.
+La première trace écrite sur les travaux de Vergnette sur le chauffage du vin date de 1846, soit vingt ans avant Louis Pasteur  et 36 ans après la publication d'Appert ,. On y lit que « La chaleur rendait les ferments moins organisés.». D’après L. de Montille,  « la chaleur rendait les ferments moins organisés », cela signifie que « la chaleur atténuait les ferments », formule qui a servi de base à tous les travaux de Louis Pasteur.
+Cette année-là, il publie également un mémoire sur la viticulture et l’œnologie de la Côte-d’Or . de Vergnette parle de congélation artificielle pour conserver les vins. D’après de nombreux historiens, il est le premier à avoir utilisé la congélation pour conserver du vin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L’apport et l’œuvre d'Alfred de Vergnette de Lamotte</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1847, il s’intéresse aux insectes nuisibles à la vigne ainsi que de l’emploi du tannin dans le collage des vins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L’apport et l’œuvre d'Alfred de Vergnette de Lamotte</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1848, il publie un texte sur l’exportation des vins de Bourgogne dans les pays chauds ainsi qu’un texte sur l’impôt sur les boissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L’apport et l’œuvre d'Alfred de Vergnette de Lamotte</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1850, il publie un mémoire sur ses expériences et ses résultats dans les annales de la Société centrale d’agriculture de Paris (ce mémoire fut republié dans le journal de Beaune en 1865 et inséré dans son livre « Le vin » en 1866) . Signalons au passage que Pasteur prétend n’en avoir pris connaissance qu’en 1865.
+Citons la communication publiée par Alfred de Vergnette : « En 1840 des vins de cette récolte avaient été mis en bouteille au décuvage. Après avoir été bouchées ficelées et exposées au bain-marie à une température de 70 degrés, elles furent descendues à la cave et oubliées. En 1846 (alors que la plupart des vins de 1840 dont les raisins furent grêlés, avaient subi une maladie à laquelle plusieurs succombèrent) quelques bouteilles de ce vin se trouvèrent sous ma main avec leur étiquette et je constatai avec une remarquable satisfaction qu’ils étaient dans le meilleur état de conservation. Nous avons répété cette expérience sur d’autres vins à l’époque de leur mise en bouteille et nous avons réussi, en faisant varier la température du bain-marie de 50 à 75 degrés, à préserver les vins de qualité soumis à ces essais de toute altération ultérieure. Nous ne terminerons pas cette notice sans conseiller aussi pour les vins qui doivent être expédiés en bouteille, un essai dont la réussite a été complète pour les vins blancs. On soumet les bouteilles bouchées et ficelées à la chaleur d’un bain-marie en ayant soin d’éteindre le feu dès que la température atteint 70 degrés. Quand cette eau est descendue au degré de la température ambiante, on les en retire et on les goudronne. J’ai soumis à mes essais de grands vins blancs de Bourgogne qui après avoir subi ce traitement avaient fait deux fois le trajet des Antilles sans subir la moindre altération » . 
+« J’ai observé, il y a quelques années, un fait assez important. Souvent obligé, dans le moment de la récolte, de conserver par la méthode Appert, des moûts destinés à des expériences qui ne pouvaient être faites que plus tard, j’ai aussi appliqué ce procédé à des vins de différentes qualités »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>L’apport et l’œuvre d'Alfred de Vergnette de Lamotte</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 7 décembre 1863, Pasteur écrit à l’Académie des sciences
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L’apport et l’œuvre d'Alfred de Vergnette de Lamotte</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette année-là, Alfred de Vergnette rédige un travail sur les vignes et la vinification dans la Côte-d’Or .
+Le 18 janvier 1864, Pasteur écrit aux CR
+Le 27 avril 1864, il adresse une lettre à Pasteur, à la suite de sa publication sur la maladie de l’amertume des grands vins de bourgogne.
+Le comité central de Sologne, dans sa séance d’automne de 1864, avait, sur la proposition de son président, M. le sénateur Boinvilliers, voté une médaille d’or de 1000 francs « à l’inventeur d’un procédé qui serait rendu public, et qui permettrait aux vins de France les transports de terre et de mer, et le séjour prolongé, en tous pays, sans que leur goût ou leur parfum en fût altéré » . Rappelons toutefois que Alfred de Vergnette de Lamotte a déjà publié un procédé en 1848 sur l'exportation des vins de Bourgogne dans les pays chauds (voir plus haut).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_de_Vergnette_de_Lamotte</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>L’apport et l’œuvre d'Alfred de Vergnette de Lamotte</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 février 1865, il présente sa candidature à l’Académie des Sciences dans la Section d’Économie rurale, à la suite du décès de Monsieur Parade.
+Le 20 février 1865, il est élu comme membre correspondant dans la Section d’Économie rurale et obtient 48 suffrages sur 57.
+Le 11 avril 1865, Pasteur dépose un brevet d’invention dans le but de pouvoir suivre à son aise toutes ses expériences et correspondre avec un grand nombre de personnes, sans craindre qu'on le devance par quelque publication ou brevet, alors que les travaux de Vergnette lui sont antérieurs et que Louis Pasteur a eu ce dernier comme source d'informations et de savoir-faire.
+Le 1er mai 1865, Vergnette fait une communication sur les effets de la chaleur pour la conservation et l’amélioration des vins aux Comptes rendus de l’Académie des Sciences : faire un résumé.
+Le même jour, Pasteur fait également une communication à l'Académie des sciences.
+Le 13 ou 15 mai 1865, Vergnette republie son mémoire de 1850 sur ses expériences de chauffage et sur ses résultats
+Afin d’asseoir toute antériorité de ses travaux sur Vergnette, Pasteur s’empresse de faire connaître les travaux de Nicolas Appert dans une note insérée aux Comptes-rendus de l’Académie des sciences de décembre 1865,. En parlant d’Appert, il y écrit que « C’est néanmoins cet habile industriel qui, le premier, a nettement indiqué la possibilité de conserver le vin par l’application préalable de la chaleur. Pourtant il est juste de faire remarquer que le fait sur lequel Appert s’appuyait ne prouvait pas du tout que sa méthode fût réellement bonne pour le vin. ».
+Le 29 mai 1865, Pasteur…
+Le 14 août 1865, Pasteur publie… 
+Le 11 octobre 1865, Pasteur adresse une lettre au rédacteur en chef du Moniteur vinicole (Sur le procédé de conservation des vins par le chauffage préalable). Il affirme que jamais un négociant du Midi n’a fait chauffer du vin dans le but de le conserver. Si les négociants en vin le font chauffer, c’est afin de « vieillir » le vin mais jamais dans un but de conservation. Il fait référence à ses notes publiées à l’Académie le 29 mai 1865  et 14 août 1865. Il reconnaît, dans le même article envoyé au rédacteur, que la personne qui a le plus approché son procédé de conservation est M. de Vergnette-Lamotte. Mais il insiste pour faire remarquer que le procédé proposé par M. de Vergnette le 1er mai 1865 n’a que des analogies avec le sien. De même, Pasteur indique qu’il ne connaissait pas les expériences d’Appert lorsqu’il adresse la lettre au rédacteur en chef.
+Pasteur affirme dans sa lettre au Moniteur vinicole qu’il prend pour la première fois connaissance de la note de Vergnette, publiée la première fois en 1850 et qui vient d’être republiée le 13 mai 1865, dans le Journal de Beaune.
+Pasteur reconnaît que Vergnette a observé avant lui que du vin chauffé au bain-marie par le procédé d’Appert peut se conserver ensuite mais fait la nuance suivante : il termine en disant « Il n’en est pas moins vrai que M. de Vergnette est la personne qui a le plus approché du procédé de conservation que j’ai fait connaître, et c’est son travail, ainsi que la méthode d’Appert, et non les pratiques de Mèze et de Cette, que la vérité historique doit placer avant le mien ». Indirectement, il reconnaît un peu l’antériorité des travaux d’Appert et de Vergnette.
+Le 4 décembre 1865, Pasteur cite les travaux d’Appert. expérience de transport de vin
+Cette année-là, Vergnette publie son livre le plus connu « Le vin » qui sera réédité l’année suivante.
 </t>
         </is>
       </c>
